--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,16 +8494,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,40 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,40 +2824,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,30 +3256,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,11 +4523,11 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,12 +6290,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,12 +6818,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,16 +7010,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,20 +7538,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7791,17 +7791,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7826,30 +7826,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7887,17 +7887,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,20 +8114,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,30 +8258,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,30 +8306,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,26 +8392,30 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,14 +8440,10 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,25 +8643,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,25 +8691,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,30 +8782,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8891,17 +8891,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,16 +9262,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,30 +9310,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,17 +9371,17 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9803,17 +9803,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,17 +9899,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,20 +9982,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10043,17 +10043,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10227,11 +10227,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,11 +10275,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,20 +10318,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,17 +10811,17 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,25 +10851,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,12 +10942,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,30 +11028,30 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11134,30 +11134,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,12 +11172,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11187,25 +11187,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11278,12 +11278,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11374,20 +11374,20 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11422,20 +11422,20 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,25 +11523,25 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,25 +11571,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,15 +11619,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,25 +11667,25 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,40 +11700,40 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11758,20 +11758,20 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,43 +11796,91 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>300000</v>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="I240" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1051</v>
+        <v>205000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,40 +1960,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,40 +2872,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,40 +3256,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,30 +3304,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4571,11 +4571,11 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,16 +7058,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,20 +7586,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7839,17 +7839,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7874,30 +7874,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7935,17 +7935,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,20 +8162,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,30 +8306,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,30 +8354,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,20 +8402,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,26 +8440,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,14 +8488,10 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8499,25 +8499,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,25 +8691,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,25 +8739,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,30 +8830,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8939,17 +8939,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,16 +9310,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,30 +9358,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,17 +9419,17 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,25 +9459,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9851,17 +9851,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,17 +9947,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,20 +10030,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10091,17 +10091,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10275,11 +10275,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,11 +10323,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,20 +10366,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,17 +10859,17 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,25 +10899,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,12 +10990,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,30 +11076,30 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11182,30 +11182,30 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11326,12 +11326,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11422,20 +11422,20 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11470,20 +11470,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,15 +11523,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,25 +11571,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,25 +11619,25 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,15 +11667,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,25 +11715,25 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,40 +11748,40 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11806,20 +11806,20 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,43 +11844,91 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F240" t="n">
+      <c r="F241" t="n">
         <v>300000</v>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
+      <c r="I241" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>205000</v>
+        <v>4500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>14/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1051</v>
+        <v>205000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>13/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,40 +2008,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,40 +2920,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,40 +3304,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,30 +3352,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,11 +4619,11 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,12 +6386,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,20 +6530,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6927,17 +6927,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,16 +7106,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,20 +7634,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7887,17 +7887,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7922,30 +7922,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7983,17 +7983,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,20 +8210,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,30 +8354,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,30 +8402,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,20 +8450,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,26 +8488,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,14 +8536,10 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8547,25 +8547,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,25 +8739,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,30 +8878,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8987,17 +8987,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,30 +9214,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,16 +9358,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,30 +9406,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9467,17 +9467,17 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,25 +9507,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9899,17 +9899,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,17 +9995,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,20 +10078,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10139,17 +10139,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10323,11 +10323,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,11 +10371,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,20 +10414,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,17 +10907,17 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11038,12 +11038,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,30 +11124,30 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,12 +11172,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11230,30 +11230,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11374,12 +11374,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11470,20 +11470,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11518,20 +11518,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,15 +11571,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,25 +11619,25 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,25 +11667,25 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,15 +11715,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,25 +11763,25 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,40 +11796,40 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11854,20 +11854,20 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,43 +11892,91 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F241" t="n">
+      <c r="F242" t="n">
         <v>300000</v>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
+      <c r="I242" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro Logístico Padre Hurtado</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Procesadora Hidrometales Ltda.</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4500</v>
+        <v>205000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>205000</v>
+        <v>4500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Parque Solar Fotovoltaico Las Violetas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>ORION POWER S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>205000</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro Logístico Padre Hurtado</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Procesadora Hidrometales Ltda.</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4500</v>
+        <v>205000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1051</v>
+        <v>4500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,40 +2056,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,40 +2968,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,40 +3352,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,30 +3400,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,11 +4667,11 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,20 +6578,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,12 +7010,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,16 +7154,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7935,17 +7935,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7970,30 +7970,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8031,17 +8031,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,20 +8258,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,30 +8402,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,30 +8450,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,20 +8498,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,26 +8536,30 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,14 +8584,10 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,25 +8787,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9035,17 +9035,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,30 +9214,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,30 +9262,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,16 +9406,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,30 +9454,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,17 +9515,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,25 +9555,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9947,17 +9947,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,17 +10043,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,20 +10126,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10187,17 +10187,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10371,11 +10371,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,11 +10419,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,20 +10462,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10846,20 +10846,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,17 +10955,17 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,12 +11086,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,30 +11172,30 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11278,30 +11278,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11331,25 +11331,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,12 +11364,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11422,12 +11422,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11518,20 +11518,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11566,20 +11566,20 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,15 +11619,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,25 +11667,25 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,25 +11715,25 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,15 +11763,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,25 +11811,25 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,40 +11844,40 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11902,20 +11902,20 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,43 +11940,91 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F242" t="n">
+      <c r="F243" t="n">
         <v>300000</v>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
+      <c r="I243" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Las Violetas</t>
+          <t>Línea de Alta Tensión Padre Hurtado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>Electrica Padre hurtado SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157948797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Parque Solar Fotovoltaico Las Violetas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>ORION POWER S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>205000</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centro Logístico Padre Hurtado</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Procesadora Hidrometales Ltda.</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4500</v>
+        <v>205000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1051</v>
+        <v>4500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Solek Chile Holding SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,40 +3016,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,40 +3400,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,30 +3448,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,12 +6482,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,12 +7010,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,17 +7023,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,30 +7106,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,16 +7202,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7983,17 +7983,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8018,30 +8018,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8079,17 +8079,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,20 +8306,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,30 +8450,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,30 +8498,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,20 +8546,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,30 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,14 +8632,10 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8643,25 +8643,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,25 +8835,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,25 +9027,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9083,17 +9083,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,30 +9262,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,30 +9310,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,16 +9454,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,30 +9502,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,17 +9563,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,25 +9603,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9995,17 +9995,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,17 +10091,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10126,30 +10126,30 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,20 +10174,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10235,17 +10235,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10419,11 +10419,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,11 +10467,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,20 +10510,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10894,20 +10894,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,17 +11003,17 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11134,12 +11134,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,30 +11220,30 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11326,30 +11326,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,12 +11364,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11379,25 +11379,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,12 +11412,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11470,12 +11470,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,7 +11523,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11566,20 +11566,20 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11614,20 +11614,20 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,15 +11667,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,25 +11715,25 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,25 +11763,25 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,15 +11811,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11859,25 +11859,25 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,40 +11892,40 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11950,20 +11950,20 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,43 +11988,91 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F243" t="n">
+      <c r="F244" t="n">
         <v>300000</v>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
+      <c r="I244" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>19800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar Santa Marta SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Roque SpA.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Padre Hurtado</t>
+          <t>Conjunto Habitacional Padre Hurtado Somos Todos I y II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Electrica Padre hurtado SpA</t>
+          <t>Icafal INGENIERIA Y CONSTRUCCION S A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/12/2022</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157948797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159891318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Las Violetas</t>
+          <t>Línea de Alta Tensión Padre Hurtado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Electrica Padre hurtado SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157948797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Parque Solar Fotovoltaico Las Violetas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>205000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centro Logístico Padre Hurtado</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Procesadora Hidrometales Ltda.</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4500</v>
+        <v>205000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1051</v>
+        <v>4500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Solar Santa Marta SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Parque Solar Santa Marta SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Solar Roque SpA.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Parque Solar Roque SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,40 +3064,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,40 +3448,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,30 +3496,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,20 +6674,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,12 +7106,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,30 +7154,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,16 +7250,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,20 +7970,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8031,17 +8031,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8066,30 +8066,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8127,17 +8127,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,20 +8354,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,30 +8498,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,30 +8546,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,20 +8594,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,30 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,14 +8680,10 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8691,25 +8691,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,30 +8734,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,25 +8883,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9131,17 +9131,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,30 +9310,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,30 +9358,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,16 +9502,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,30 +9550,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,17 +9611,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,25 +9651,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10043,17 +10043,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10139,17 +10139,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10174,30 +10174,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,20 +10222,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10283,17 +10283,17 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10467,11 +10467,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,11 +10515,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,20 +10558,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10654,20 +10654,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,20 +10942,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>inmobiliaria alicanto s.a</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>16/07/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
+          <t>Cementerio Parque Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,17 +11051,17 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>02/07/2003</t>
+          <t>16/07/2003</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=110772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
+          <t>Parque Cementerio Bellavista de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Constructora Avellaneda Ltda</t>
+          <t>inmobiliaria alicanto s.a</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>85000</v>
+        <v>451</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>02/07/2003</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102479&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Conjunto Habitacional Las Puertas de Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Constructora Avellaneda Ltda</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=83294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11182,12 +11182,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,30 +11268,30 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>31/07/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Reconstrucción y Ampliación Horno B de Cristalerías Chile.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11374,30 +11374,30 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>25000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>31/07/2002</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,12 +11412,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -11427,25 +11427,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1230</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,12 +11460,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11518,12 +11518,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>15/11/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
+          <t>Estudio para la Formulación del Plan Regulador Comunal de Padre Hurtado</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>23/10/2000</t>
+          <t>15/11/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Modificación al Plan Regulador Comunal de Padre Hurtado por Artículo Nº50 LGUC</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11614,20 +11614,20 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>23/10/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11662,20 +11662,20 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
+          <t>Sistema de Servicio de Agua Potable Rural. Localidad de El Curato comuna de Padre Hurtado</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,15 +11715,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Padre Hurtado</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>03/09/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
+          <t>Extensión Red Agua Potable y Alcantarillado para Villas Las Orquídeas Francia y Futuro</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,25 +11763,25 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>I. Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>23/04/1999</t>
+          <t>03/09/1999</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos Padre Hurtado</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,25 +11811,25 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>44700</v>
+        <v>2500</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>22/02/1999</t>
+          <t>23/04/1999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
+          <t>Sistema de Colectores - Interceptores y Emisario de entrada a la Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11859,15 +11859,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pétreos S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>400</v>
+        <v>44700</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>17/02/1999</t>
+          <t>22/02/1999</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
+          <t>Proyecto de Explotación y Procesamiento de Áridos - Proyecto La Viña</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11907,25 +11907,25 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Orden Religiosa Compañia de Jesús</t>
+          <t>Pétreos S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>11/02/1999</t>
+          <t>17/02/1999</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,40 +11940,40 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Oleoducto Con Con Maipú</t>
+          <t>Planta de Tratamientos de Aguas Servidas - Casa de Ejercicio San Ignacio de Loyola</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
+          <t>Orden Religiosa Compañia de Jesús</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>31100</v>
+        <v>360</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>29/01/1998</t>
+          <t>11/02/1999</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+          <t>Oleoducto Con Con Maipú</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11998,20 +11998,20 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Shell Chile S.A.C. e I., COPEC S.A., COPEC Móbil Ltda., SONACOL S.A., Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>31100</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>17/12/1996</t>
+          <t>29/01/1998</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12036,43 +12036,91 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas Santiago Sur</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Aguas Andinas S.A.</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>17/12/1996</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F244" t="n">
+      <c r="F245" t="n">
         <v>300000</v>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
+      <c r="I245" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>Padre Hurtado</t>
         </is>

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>429</v>
+        <v>5300</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">

--- a/data/Padre Hurtado.xlsx
+++ b/data/Padre Hurtado.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Padre Hurtado Somos Todos I y II</t>
+          <t>Condominio San Ignacio, Etapas 1 y 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Icafal INGENIERIA Y CONSTRUCCION S A</t>
+          <t>Isiete Grupo Inmobiliario SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65000</v>
+        <v>36000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/08/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159891318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159845279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Padre Hurtado</t>
+          <t>Conjunto Habitacional Padre Hurtado Somos Todos I y II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Electrica Padre hurtado SpA</t>
+          <t>Icafal INGENIERIA Y CONSTRUCCION S A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/12/2022</t>
+          <t>29/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157948797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159891318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Las Violetas</t>
+          <t>Línea de Alta Tensión Padre Hurtado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Electrica Padre hurtado SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157948797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
+          <t>Parque Solar Fotovoltaico Las Violetas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Servicios Amazon Data Services Chile SpA</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>205000</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157311880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centro Logístico Padre Hurtado</t>
+          <t>Centro de Almacenamiento de Datos Padre Hurtado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Procesadora Hidrometales Ltda.</t>
+          <t>Servicios Amazon Data Services Chile SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4500</v>
+        <v>205000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -644,12 +644,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156924955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
+          <t>Centro Logístico Padre Hurtado</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANDRÉS VALDEBENITO MORALES</t>
+          <t>Procesadora Hidrometales Ltda.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1051</v>
+        <v>4500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157117908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia</t>
+          <t>Bodegas Almacenamiento Productos de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Doña Petronia SpA</t>
+          <t>ANDRÉS VALDEBENITO MORALES</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11000</v>
+        <v>1051</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156255713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVC SOLAR 51 SpA</t>
+          <t>Parque Fotovoltaico Doña Petronia SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Doña Petronia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>MVC SOLAR 51 SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151464865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Marta</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Solar Santa Marta SpA</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151259667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Solar Las Violetas</t>
+          <t>Parque Fotovoltaico Santa Marta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Parque Solar Santa Marta SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/03/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151191201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Roque</t>
+          <t>Planta Solar Las Violetas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Solar Roque SpA.</t>
+          <t>Energy Lancuyen SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>17/03/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151111699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
+          <t>Parque Fotovoltaico El Roque</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Incahuasi energy SpA</t>
+          <t>Parque Solar Roque SpA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6213</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150815334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Violeta</t>
+          <t>Ampliación Parque Fotovoltaico Guanaco del Verano I</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>Incahuasi energy SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>13500</v>
+        <v>6213</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146512474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque San Ignacio II</t>
+          <t>Planta Fotovoltaica Violeta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146310577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
+          <t>Parque San Ignacio II</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/01/2019</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146040359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Conjunto Habitacional Pintor Pablo Burchard y Escultor Virginio Arias</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria Pocuro SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142240456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Los Nogales</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Inmobiliaria Pocuro SpA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20425</v>
+        <v>17600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139218616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>94800</v>
+        <v>20425</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/04/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10092</v>
+        <v>94800</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138866341&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Aconcagua II</t>
+          <t>Aumento de la capacidad de cogeneración de energía a partir del biogás generado en la planta de tratamiento de aguas servidas Mapocho - Trebal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18000</v>
+        <v>10092</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14/02/2018</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138454327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Aconcagua II</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>118526</v>
+        <v>18000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>14/02/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138466410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LOTE 8B1 Y 8B2</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15760</v>
+        <v>118526</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/10/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Santa Leonor</t>
+          <t>LOTE 8B1 Y 8B2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Puerta Oriente Limitada</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>94800</v>
+        <v>15760</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/09/2017</t>
+          <t>31/10/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132830983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Santa Leonor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Inmobiliaria Puerta Oriente Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>118526</v>
+        <v>94800</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>12/09/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132713434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5500</v>
+        <v>118526</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lote 8B1 y 8B2</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria Berna S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15760</v>
+        <v>5500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132597416&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto de Loteo Parque San Ignacio</t>
+          <t>Lote 8B1 y 8B2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Viviendas Económicas San Luis S.A</t>
+          <t>Inmobiliaria Berna S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>23000</v>
+        <v>15760</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131614931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
+          <t>Proyecto de Loteo Parque San Ignacio</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Viviendas Económicas San Luis S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>29/07/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131636959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131488806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/05/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131435287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25/04/2016</t>
+          <t>17/05/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131405609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
+          <t>Ampliación capacidad de almacenamiento Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cristalerias de Chile S.A.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75000</v>
+        <v>5500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/02/2016</t>
+          <t>25/04/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131332369&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/01/2016</t>
+          <t>12/02/2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131158349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/01/2016</t>
+          <t>27/01/2016</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131126829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Cambio de Configuración Hornos Planta Padre Hurtado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Cristalerias de Chile S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.1</v>
+        <v>75000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>18/01/2016</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131106790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,40 +2200,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>1.1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17000</v>
+        <v>77000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,40 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bodega de solidos inflamables y raticidas</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>26/12/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7677911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
+          <t>bodega de solidos inflamables y raticidas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7263582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Escritor Miguel Arteche</t>
+          <t>Extracción Industrial de Aridos Río Mapocho Sector El Trebal, Comuna Padre Hurtado</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>19800</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7234157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Escritor Miguel Arteche</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15000</v>
+        <v>19800</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7125403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>120</v>
+        <v>15000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bodega de Solidos Inflamables y Raticida</t>
+          <t>"Bodega de Sólidos Inflamables y Raticida"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7173141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Bodega de Solidos Inflamables y Raticida</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7037225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,40 +3496,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cementos Bicentenario S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,30 +3544,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>EXTRACCIÓN DE PUZOLANA Y UTILIZACIÓN DE BIOGÁS PARA SU PROCESO DE SECADO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cementos Bicentenario S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/05/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6906100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Construcción Urbanización Sector San Ignacio</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>55960</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Construcción Urbanización Sector San Ignacio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>55960</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>21/02/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6627231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aguas Claras Ltda</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>17/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6502113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>04/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6460317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Instalación Planta de Formulación</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Instalación Planta de Formulación</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>14/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6258532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Extracción Industrial de Áridos Río Mapocho, Sector El Trebal, Comuna de Padre Hurtado Exp. 100/2011</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5909683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>49000</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario San Alberto</t>
+          <t>Optimización del tratamiento de lodos y cogeneración de Energía a partir del biogás producido en las plantas de tratamiento de aguas servidas Mapocho-El Trebal</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>35400</v>
+        <v>49000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>17/12/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Proyecto Inmobiliario San Alberto</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>230</v>
+        <v>35400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>17/12/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5162133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Veolia SU Chile S.A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.236</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Tratamiento Externo de los Lixiviados del Relleno Sanitario Santiago Poniente</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Veolia SU Chile S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1.236</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/07/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4804511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Extraccion Industrial de Aridos en Rio Mapocho, sector El Trebal.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
+          <t>Extracción Industrial de Aridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>168000</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/05/2010</t>
+          <t>03/06/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Proyecto Inmobiliario Nuevo Padre Hurtado</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Inmobiliaria y Constructora ALHUNE Ltda</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>168000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>26/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4615553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Marín Varas</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>19/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Extracción Industrial de Áridos en Río Mapocho, Sector El Trebal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Gabriel Marín Varas</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>19/04/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4515583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Implementación Equipos de Control de Emisiones Atmosféricas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>Cristalerías de Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4289187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/12/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Sistema de Tratamiento para Disponer Riles al Suelo mediante Aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>16/12/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4256315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,20 +6530,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Prorroga de Utilidad Pública de Vialidad Estructurante (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>I. MUNICIPALIDAD DE PADRE HURTADO</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,17 +6591,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>13/11/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4175024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ODFJELL VINEYARDS S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante aspersores, en Odfjell Vineyards S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>ODFJELL VINEYARDS S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3999070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>18/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Línea de transmisión 110 kV Santa Marta- Padre Hurtado y Subestación eléctrica 110/12-23 kV Padre Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>18/12/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3434591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,12 +7106,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,12 +7154,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Veyance Technologies Chile Limitada</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1200</v>
+        <v>25</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Continuidad Operacional Veyance Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Veyance Technologies Chile Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3293922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Agrícola Poblete Hermanos Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>83000</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>Aire Nuevo de Padre Hurtado 195/08 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrícola Poblete Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>83000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>20/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3278468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Inmobiliaria Lago Riñihue Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5200</v>
+        <v>1750</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional San Alberto Hurtado (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,30 +7778,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Inmobiliaria Lago Riñihue Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>5200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3221727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,20 +8018,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8079,17 +8079,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8114,30 +8114,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,20 +8402,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>9668</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>INSTALACIÓN DE LOS SERVICIOS DE AGUA POTABLE Y ALCANTARILLADO PUERTAS DE PADRE HURTADO (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>EMPRESA DE SERVICIOS SANITARIOS SAN ISIDRO S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>16130</v>
+        <v>9668</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2897937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8546,30 +8546,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8594,30 +8594,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Padre Hurtado</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>28/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>1º Modificación Plan Regulador Comunal de Padre Hurtado, Cambio de Uso de Suelo de las Parcelas 9 y 10 de El Progreso. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,20 +8642,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Ilustre Municipalidad de Padre Hurtado</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/12/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,30 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>100% Saneamiento de la Cuenca de Santiago</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>420000</v>
+        <v>30</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,14 +8728,10 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>100% Saneamiento de la Cuenca de Santiago</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
           <t>RM</t>
@@ -8739,25 +8739,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>234</v>
+        <v>420000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2577800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,30 +8782,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria Conpaces S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5300</v>
+        <v>429</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Conjunto Habitacional Valle el Trébol Exp N°149/07 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Conpaces S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,25 +8931,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,25 +8979,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"Caminos de Padre Hurtado" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inmobiliaria Geosal S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>180000</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>"Caminos de Padre Hurtado" (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Geosal S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2387183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9179,17 +9179,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,25 +9315,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,30 +9358,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento de Suelo Agricola Sector El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,30 +9406,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>07/03/2007</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2029327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Morteros y Áridos Dry Mix Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>19/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Mejoramiento de Suelos Agricola (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Morteros y Áridos Dry Mix Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>19/02/2007</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2001025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,16 +9550,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,30 +9598,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,17 +9659,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10091,17 +10091,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10187,17 +10187,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10222,30 +10222,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Optimización y Mejoramientos en la Gestión de la PTAS El Trebal (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,20 +10270,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10331,17 +10331,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10515,11 +10515,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,11 +10563,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,20 +10606,20 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Oleoducto Concón-Maipú: By-Pass Santa Mónica 076/2005 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=958576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10702,20 +10702,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Distribuidora Carranza S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>21/06/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>ALMACENAJE Y TRANSPORTE DE CAL POR CARRETERA (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Distribuidora Carranza S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>21/06/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Degesch de Chile Ltda</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>24/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=359702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Grupos Generadores Planta Padre Hurtado (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE FUMIGANTES DESDE EL PUERTO DE VENTANA HASTA LAS INSTALACIONES DE DEGESCH DE CHILE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,20 +10990,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Cristalerías de Chile S.A.</t>
+          <t>Degesch de Chile Ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>24/05/2004</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +1